--- a/hbar/11-3-6.xlsx
+++ b/hbar/11-3-6.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Direct contribution [kg CO2-Eq]</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3.6. Klärschlammverbrennung Kohlekraftwerk, 100% geogen, Stuttgarter</t>
+    <t xml:space="preserve">11.3.6. Klärschlammverbrennung im Kohlekraftwerk 100% geogenes Treibhauspotenzial mit Stuttgarter V.</t>
   </si>
   <si>
     <t xml:space="preserve">electricity production, lignite | electricity, high voltage | cut-off, U - DE</t>
@@ -2469,7 +2469,7 @@
   <dimension ref="A1:H2060"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2500,7 +2500,8 @@
         <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>243480.399067127</v>
+        <f aca="false">243480.399067127-359668.629*2</f>
+        <v>-475856.858932873</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>-4570999.0748</v>
@@ -3936,7 +3937,8 @@
         <v>123</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>2149406.80508555</v>
+        <f aca="false">2149406.80508555-359668.629*2</f>
+        <v>1430069.54708555</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +3957,7 @@
         <v>125</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>219891.828270904</v>
+        <v>-219891.828270904</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9041,7 @@
         <v>356</v>
       </c>
       <c r="G733" s="0" t="n">
-        <v>114642.730537953</v>
+        <v>-114642.730537953</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +10556,7 @@
         <v>408</v>
       </c>
       <c r="G901" s="0" t="n">
-        <v>25134.0690475917</v>
+        <v>-25134.0690475917</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
